--- a/WCMC.Stat.OneWayRepANOVA/inst/www/template.xlsx
+++ b/WCMC.Stat.OneWayRepANOVA/inst/www/template.xlsx
@@ -623,39 +623,39 @@
       </c>
       <c r="B4" s="1">
         <f t="shared" ref="B4:J4" ca="1" si="0">RAND()</f>
-        <v>0.1477277256695938</v>
+        <v>0.77833291539198202</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97190438109128563</v>
+        <v>0.1308236292457805</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.28283203581947E-2</v>
+        <v>0.92578591706643742</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8977526590521886</v>
+        <v>0.61811182561868172</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4048595800902276</v>
+        <v>0.91406163030240806</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13218750316237704</v>
+        <v>0.74204129539927999</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16776798106835145</v>
+        <v>8.5791735231527944E-2</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55505155377703885</v>
+        <v>0.57761446346589662</v>
       </c>
       <c r="J4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92379724641895633</v>
+        <v>0.83613965379584876</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -664,39 +664,39 @@
       </c>
       <c r="B5" s="1">
         <f t="shared" ref="B5:J23" ca="1" si="1">RAND()</f>
-        <v>0.5788331495579776</v>
+        <v>0.22716411721386098</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.47882295664181584</v>
+        <v>0.61653752792854832</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.57361395466662812</v>
+        <v>0.23896104655377204</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.79796636202575011</v>
+        <v>0.34436341018376249</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.53133930517238392</v>
+        <v>0.87922179288288416</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65182515738580737</v>
+        <v>0.830175144558567</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.67025399620244253</v>
+        <v>0.72901749498143931</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14906444055282475</v>
+        <v>0.79174493740048857</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.54550662647717307</v>
+        <v>0.79549193036407029</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
@@ -705,39 +705,39 @@
       </c>
       <c r="B6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.40707637171517552</v>
+        <v>0.1014159870581024</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4682546202110881</v>
+        <v>0.30733386440577182</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.67826629556998375</v>
+        <v>0.76633023158262104</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.67455906855520109</v>
+        <v>0.82829397880250433</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21030709246145551</v>
+        <v>4.5999159357061781E-2</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69670014856300078</v>
+        <v>0.44124594657858973</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.40422198706986578</v>
+        <v>0.23110699176876914</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2.3188699607815111E-2</v>
+        <v>5.4883661173624532E-2</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35979426206220466</v>
+        <v>0.77214781804040111</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
@@ -746,39 +746,39 @@
       </c>
       <c r="B7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.18740276782063769</v>
+        <v>9.3722734597273205E-2</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.74915409681059097</v>
+        <v>0.11289526619244727</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1.713393938293517E-2</v>
+        <v>0.89855047792281406</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>4.4593083482081131E-2</v>
+        <v>0.95809830252197681</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.82049443640936981</v>
+        <v>0.24991093159129008</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.29780393868803945</v>
+        <v>0.46126263511895882</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.83483051487453264</v>
+        <v>0.17016178273397775</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.71143447165525442</v>
+        <v>0.60778377287634011</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7825622739515381</v>
+        <v>0.32083359892124808</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
@@ -787,39 +787,39 @@
       </c>
       <c r="B8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.18754788983294102</v>
+        <v>0.30374953003270067</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.84193248387523256</v>
+        <v>0.34822216105392834</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.51861271930490549</v>
+        <v>2.9223762154241051E-2</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.54556146922424464</v>
+        <v>0.32957625670912727</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6309260373553206</v>
+        <v>0.43279799551188203</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.50858067649333849</v>
+        <v>0.96890452879961053</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61025386242877033</v>
+        <v>0.23343633609086822</v>
       </c>
       <c r="I8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>9.2939419553495606E-2</v>
+        <v>0.7399307553346387</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.93704502352042773</v>
+        <v>0.65751138173610302</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
@@ -828,39 +828,39 @@
       </c>
       <c r="B9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>6.0827106650815588E-2</v>
+        <v>0.84050634921706335</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98962026763645361</v>
+        <v>0.48122514448211184</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.55305408793851485</v>
+        <v>0.52966601068405506</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>8.5775406752054417E-2</v>
+        <v>0.94206973655855919</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49970012657590124</v>
+        <v>0.40863258976043049</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.42839517332944654</v>
+        <v>0.6452102264119921</v>
       </c>
       <c r="H9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16971912912050202</v>
+        <v>0.57465249116211137</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15497991324135874</v>
+        <v>0.7409161894673334</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61862336234674598</v>
+        <v>0.25434820636182465</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
@@ -869,39 +869,39 @@
       </c>
       <c r="B10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77114730110694052</v>
+        <v>0.61192249632060269</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.30230151269693573</v>
+        <v>0.32855972152030155</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.55490289465539522</v>
+        <v>0.83107805230231568</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.23781158451854445</v>
+        <v>0.35633350781849105</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65771733228509199</v>
+        <v>0.49942512081621049</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2.1358820607338624E-2</v>
+        <v>0.86960570277138349</v>
       </c>
       <c r="H10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.82859759931017107</v>
+        <v>0.28531617371084328</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>8.0585983318005705E-2</v>
+        <v>6.5287177054376921E-2</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25079626039790937</v>
+        <v>0.99495797926959961</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
@@ -910,39 +910,39 @@
       </c>
       <c r="B11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.20103724059526495</v>
+        <v>0.94009537793771869</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.27884339955525395</v>
+        <v>0.72840410603099648</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.42493470772201813</v>
+        <v>0.50842441922053561</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.80556859798746194</v>
+        <v>5.5358300580021558E-2</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>6.3412453173318784E-2</v>
+        <v>0.10013259737665636</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61593968199825622</v>
+        <v>0.34399567089450744</v>
       </c>
       <c r="H11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>7.306318832276304E-2</v>
+        <v>0.7731203157384674</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43717088130823911</v>
+        <v>0.6342381530472978</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8346814680986987</v>
+        <v>0.42201160574315677</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
@@ -951,39 +951,39 @@
       </c>
       <c r="B12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.56635247277930245</v>
+        <v>0.22090718310804969</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35169665846167797</v>
+        <v>0.939198330893943</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.19372083097688564</v>
+        <v>0.7805686849891651</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.53235159488916528</v>
+        <v>0.32870234284003308</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.28258380392641502</v>
+        <v>0.4656685150921609</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11607999234348876</v>
+        <v>0.92687622591963992</v>
       </c>
       <c r="H12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>4.0226693366533728E-2</v>
+        <v>0.75046017526373177</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6258116066894085</v>
+        <v>0.30401465026220209</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.58992969804713313</v>
+        <v>0.90036298169828832</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
@@ -992,39 +992,39 @@
       </c>
       <c r="B13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13540334876964588</v>
+        <v>0.63617844825657111</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.87689694444620991</v>
+        <v>0.32783145006640269</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69838967592524615</v>
+        <v>0.68680420178662938</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>4.38062449729818E-2</v>
+        <v>0.98510288154696901</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>4.3471093268944383E-2</v>
+        <v>0.3880911568402533</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.64981745509421529</v>
+        <v>0.31067697420013352</v>
       </c>
       <c r="H13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39831771547586903</v>
+        <v>0.93211657627394762</v>
       </c>
       <c r="I13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77603174096840266</v>
+        <v>0.96878638747437873</v>
       </c>
       <c r="J13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13392120895031046</v>
+        <v>0.58495704185485353</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
@@ -1033,39 +1033,39 @@
       </c>
       <c r="B14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.68858242898803523</v>
+        <v>0.41232023576297061</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.22706651849697623</v>
+        <v>0.9664887766286353</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>6.1530858367403574E-2</v>
+        <v>0.34214427661120128</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.34409405356258826</v>
+        <v>0.59708221575340048</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.47403958269146018</v>
+        <v>0.36212305119575672</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.47300209154542605</v>
+        <v>0.94560505524885108</v>
       </c>
       <c r="H14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.40147441049631871</v>
+        <v>0.93230753179342851</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.17024328750062179</v>
+        <v>0.13145919448304166</v>
       </c>
       <c r="J14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76335436818651459</v>
+        <v>0.9117888928959117</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
@@ -1074,39 +1074,39 @@
       </c>
       <c r="B15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6812658073103699</v>
+        <v>0.72763684034483134</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69587749892707162</v>
+        <v>0.57464475608357446</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.59808994594311882</v>
+        <v>0.92044897744222376</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43262532405682896</v>
+        <v>0.63506920208828566</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13561647784569941</v>
+        <v>0.71062959366584399</v>
       </c>
       <c r="G15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5684280503700877</v>
+        <v>0.24606544301245403</v>
       </c>
       <c r="H15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.3402556037630361</v>
+        <v>0.73744598494519875</v>
       </c>
       <c r="I15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.42087701291782176</v>
+        <v>0.21298173303840773</v>
       </c>
       <c r="J15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1338371241130496</v>
+        <v>0.16690368412134771</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
@@ -1115,39 +1115,39 @@
       </c>
       <c r="B16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75034299839621477</v>
+        <v>0.99642737100246936</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76994112393368763</v>
+        <v>0.69426373428138322</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.90845896129515757</v>
+        <v>0.35574892946663494</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7107906136363592</v>
+        <v>0.52834848407639645</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.59182356690772731</v>
+        <v>0.10925778332384206</v>
       </c>
       <c r="G16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70406432798826779</v>
+        <v>0.75001150146355489</v>
       </c>
       <c r="H16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61733031865538845</v>
+        <v>0.30621348139892646</v>
       </c>
       <c r="I16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10250778466161992</v>
+        <v>0.26778619298142947</v>
       </c>
       <c r="J16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.85799620864279347</v>
+        <v>0.9095164614274015</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
@@ -1156,39 +1156,39 @@
       </c>
       <c r="B17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.9976304394001928</v>
+        <v>0.7203722575854713</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.63742185928221151</v>
+        <v>0.56308428261417776</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14819840792554517</v>
+        <v>0.15765171314615012</v>
       </c>
       <c r="E17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.67431508245010741</v>
+        <v>0.15986760000620392</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.63464578728687993</v>
+        <v>2.6010923566333943E-2</v>
       </c>
       <c r="G17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.12562200919765409</v>
+        <v>0.28216847117760546</v>
       </c>
       <c r="H17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.59312318696761768</v>
+        <v>0.96576608268344877</v>
       </c>
       <c r="I17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.50090532383380981</v>
+        <v>0.52292080297562638</v>
       </c>
       <c r="J17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.80486353403417532</v>
+        <v>0.48322585130514495</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
@@ -1197,39 +1197,39 @@
       </c>
       <c r="B18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.71320533465824765</v>
+        <v>0.35649952424639286</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.20845043245131156</v>
+        <v>6.9078387768086058E-2</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>7.711104943289171E-2</v>
+        <v>0.78838226896886676</v>
       </c>
       <c r="E18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.40732070854678581</v>
+        <v>0.59478067349083308</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.50946354690004203</v>
+        <v>0.17674157915210398</v>
       </c>
       <c r="G18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>8.0590090925243496E-2</v>
+        <v>0.62754586622899233</v>
       </c>
       <c r="H18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>4.1700887400268227E-2</v>
+        <v>0.96815471195051239</v>
       </c>
       <c r="I18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5634092237169569</v>
+        <v>0.14601683375276375</v>
       </c>
       <c r="J18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21218222779602336</v>
+        <v>0.80952147889887383</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
@@ -1238,39 +1238,39 @@
       </c>
       <c r="B19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.71406274307291828</v>
+        <v>0.7112044628976385</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.78115023583174326</v>
+        <v>0.76272458076449878</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16624335890777853</v>
+        <v>0.17467755573431165</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.41173471554067342</v>
+        <v>0.20404114873169832</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.90047031357329199</v>
+        <v>0.84779112550779467</v>
       </c>
       <c r="G19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.18963753592047505</v>
+        <v>0.14405072978796551</v>
       </c>
       <c r="H19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>5.0972183298122586E-2</v>
+        <v>0.43981508852595097</v>
       </c>
       <c r="I19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>6.4661173454417464E-2</v>
+        <v>0.72157873842849607</v>
       </c>
       <c r="J19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.83523302115471731</v>
+        <v>0.8233689117792713</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
@@ -1279,39 +1279,39 @@
       </c>
       <c r="B20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4770454665630719</v>
+        <v>0.34141864380818587</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66589485051838448</v>
+        <v>0.67210890563050663</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.90396826455268398</v>
+        <v>0.14073854963318433</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.92414129930964761</v>
+        <v>9.4239763540083454E-2</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14242316032146163</v>
+        <v>5.6598315787706244E-2</v>
       </c>
       <c r="G20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89623785319807303</v>
+        <v>0.94475333853456001</v>
       </c>
       <c r="H20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.85003403039795999</v>
+        <v>0.98425389553931453</v>
       </c>
       <c r="I20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.94178875354728153</v>
+        <v>0.8998809469112472</v>
       </c>
       <c r="J20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39619260163334913</v>
+        <v>0.23144804179437495</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
@@ -1320,39 +1320,39 @@
       </c>
       <c r="B21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>6.7353024210774048E-2</v>
+        <v>0.81080749225653603</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.41399897638016703</v>
+        <v>0.23026613937758778</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.99759778472068572</v>
+        <v>0.85864912230031554</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.63956509269090978</v>
+        <v>6.091017391088549E-2</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.81102030961788052</v>
+        <v>0.94260231523150861</v>
       </c>
       <c r="G21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4907738094636277</v>
+        <v>0.41254861185617697</v>
       </c>
       <c r="H21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.18950925127119167</v>
+        <v>0.94707634905213078</v>
       </c>
       <c r="I21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.17376362329604433</v>
+        <v>0.85321632522481294</v>
       </c>
       <c r="J21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.37286365316846304</v>
+        <v>0.95886816954363951</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
@@ -1361,39 +1361,39 @@
       </c>
       <c r="B22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65788481047700276</v>
+        <v>0.83582929717788224</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3.7083872274168206E-2</v>
+        <v>0.7166179808661356</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70766872167197103</v>
+        <v>0.76978765601635912</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.97372861364978824</v>
+        <v>0.49534340408449562</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>4.7651939758093564E-2</v>
+        <v>0.75246869430668428</v>
       </c>
       <c r="G22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39480180370336304</v>
+        <v>0.5433839920488337</v>
       </c>
       <c r="H22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.32198460090380143</v>
+        <v>0.85119246317845865</v>
       </c>
       <c r="I22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.41654449677573391</v>
+        <v>0.2940002500244242</v>
       </c>
       <c r="J22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66206086965475308</v>
+        <v>0.56652968775713475</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
@@ -1402,39 +1402,39 @@
       </c>
       <c r="B23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.67579799285575115</v>
+        <v>0.49306769178205545</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.91757599631530429</v>
+        <v>0.47184819818649082</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.95401088533690348</v>
+        <v>0.34679493677999007</v>
       </c>
       <c r="E23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24901394704470969</v>
+        <v>0.28828573820644132</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.9437700054778152</v>
+        <v>0.65615861457882219</v>
       </c>
       <c r="G23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>7.4835406706841301E-3</v>
+        <v>0.93718821536733543</v>
       </c>
       <c r="H23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.67973792009615974</v>
+        <v>0.51662049690524003</v>
       </c>
       <c r="I23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76111700173826891</v>
+        <v>0.90183447172375619</v>
       </c>
       <c r="J23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.36644070630940251</v>
+        <v>0.68106222454117527</v>
       </c>
     </row>
   </sheetData>

--- a/WCMC.Stat.OneWayRepANOVA/inst/www/template.xlsx
+++ b/WCMC.Stat.OneWayRepANOVA/inst/www/template.xlsx
@@ -512,7 +512,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="J23" sqref="A1:J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -623,39 +623,39 @@
       </c>
       <c r="B4" s="1">
         <f t="shared" ref="B4:J4" ca="1" si="0">RAND()</f>
-        <v>0.77833291539198202</v>
+        <v>0.70597524475011852</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1308236292457805</v>
+        <v>0.14601779219465605</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92578591706643742</v>
+        <v>0.74139736210504936</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61811182561868172</v>
+        <v>0.55489342498746286</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91406163030240806</v>
+        <v>0.46318229297088631</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74204129539927999</v>
+        <v>0.74322743918122969</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8.5791735231527944E-2</v>
+        <v>7.4791295166899197E-2</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57761446346589662</v>
+        <v>0.47089854434740441</v>
       </c>
       <c r="J4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83613965379584876</v>
+        <v>0.42300546295976649</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -664,39 +664,39 @@
       </c>
       <c r="B5" s="1">
         <f t="shared" ref="B5:J23" ca="1" si="1">RAND()</f>
-        <v>0.22716411721386098</v>
+        <v>0.6591885240210783</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61653752792854832</v>
+        <v>0.6804407666140555</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.23896104655377204</v>
+        <v>0.447153966214484</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.34436341018376249</v>
+        <v>0.46620140992548387</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.87922179288288416</v>
+        <v>0.84051626184205064</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.830175144558567</v>
+        <v>0.74614635159416176</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.72901749498143931</v>
+        <v>0.17670553738003136</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.79174493740048857</v>
+        <v>0.53074990069794814</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.79549193036407029</v>
+        <v>0.73748805544997098</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
@@ -705,39 +705,39 @@
       </c>
       <c r="B6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1014159870581024</v>
+        <v>0.81396936766666372</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.30733386440577182</v>
+        <v>0.82139360181528953</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76633023158262104</v>
+        <v>0.32180810539939442</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.82829397880250433</v>
+        <v>0.27733512869740751</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>4.5999159357061781E-2</v>
+        <v>0.73116929682073972</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.44124594657858973</v>
+        <v>0.99762886742164203</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.23110699176876914</v>
+        <v>1.4306657706180115E-2</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>5.4883661173624532E-2</v>
+        <v>0.77891844997482951</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77214781804040111</v>
+        <v>7.6772782244682758E-2</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
@@ -746,39 +746,39 @@
       </c>
       <c r="B7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>9.3722734597273205E-2</v>
+        <v>0.44454514807292911</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11289526619244727</v>
+        <v>6.7346437201557419E-2</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89855047792281406</v>
+        <v>0.26933846338241585</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.95809830252197681</v>
+        <v>0.29446885902214703</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24991093159129008</v>
+        <v>0.1183967605152797</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.46126263511895882</v>
+        <v>0.82042924027222419</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.17016178273397775</v>
+        <v>0.97273954668124951</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.60778377287634011</v>
+        <v>0.89830504062300487</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.32083359892124808</v>
+        <v>0.57044782372287473</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
@@ -787,39 +787,39 @@
       </c>
       <c r="B8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.30374953003270067</v>
+        <v>0.54082832631918965</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.34822216105392834</v>
+        <v>0.66218067146063464</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2.9223762154241051E-2</v>
+        <v>0.22323946789553639</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.32957625670912727</v>
+        <v>0.13760712978846656</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43279799551188203</v>
+        <v>0.47251361253675561</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.96890452879961053</v>
+        <v>0.69446558894868127</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.23343633609086822</v>
+        <v>5.4704536397886083E-2</v>
       </c>
       <c r="I8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7399307553346387</v>
+        <v>0.29602761040550096</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65751138173610302</v>
+        <v>0.40627666760149705</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
@@ -828,39 +828,39 @@
       </c>
       <c r="B9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.84050634921706335</v>
+        <v>0.68074594540989153</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.48122514448211184</v>
+        <v>0.17563743421841138</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.52966601068405506</v>
+        <v>0.68303825728974465</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.94206973655855919</v>
+        <v>0.48599175022250662</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.40863258976043049</v>
+        <v>0.76965901760557986</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6452102264119921</v>
+        <v>0.87504984775256767</v>
       </c>
       <c r="H9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.57465249116211137</v>
+        <v>0.61892689937469936</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7409161894673334</v>
+        <v>0.6606498063589199</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25434820636182465</v>
+        <v>0.44497980168879347</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
@@ -869,39 +869,39 @@
       </c>
       <c r="B10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61192249632060269</v>
+        <v>0.48554787368264718</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.32855972152030155</v>
+        <v>0.94160368310952858</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.83107805230231568</v>
+        <v>0.83752911220876824</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35633350781849105</v>
+        <v>0.10603895987902356</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49942512081621049</v>
+        <v>0.60371851220700179</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.86960570277138349</v>
+        <v>0.2942594283509834</v>
       </c>
       <c r="H10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.28531617371084328</v>
+        <v>0.97107588311884874</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>6.5287177054376921E-2</v>
+        <v>0.84373015125319084</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.99495797926959961</v>
+        <v>0.97670380130988144</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
@@ -910,39 +910,39 @@
       </c>
       <c r="B11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.94009537793771869</v>
+        <v>0.44379813634210319</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.72840410603099648</v>
+        <v>0.84856121293615727</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.50842441922053561</v>
+        <v>0.74762422703990483</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>5.5358300580021558E-2</v>
+        <v>0.5386650698940959</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10013259737665636</v>
+        <v>0.2311418597412328</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.34399567089450744</v>
+        <v>4.8453057633683683E-2</v>
       </c>
       <c r="H11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7731203157384674</v>
+        <v>0.96052756575795351</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6342381530472978</v>
+        <v>0.2858468435603162</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.42201160574315677</v>
+        <v>0.45800095100643445</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
@@ -951,39 +951,39 @@
       </c>
       <c r="B12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.22090718310804969</v>
+        <v>0.42265657690226976</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.939198330893943</v>
+        <v>4.4492125470555033E-2</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7805686849891651</v>
+        <v>0.60563823194074262</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.32870234284003308</v>
+        <v>0.43432054399151143</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4656685150921609</v>
+        <v>0.88422794688706507</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.92687622591963992</v>
+        <v>0.22651518448554209</v>
       </c>
       <c r="H12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75046017526373177</v>
+        <v>0.7455462709435684</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.30401465026220209</v>
+        <v>0.20134850247307023</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.90036298169828832</v>
+        <v>0.49051385928809244</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
@@ -992,39 +992,39 @@
       </c>
       <c r="B13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.63617844825657111</v>
+        <v>5.3108177595371231E-2</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.32783145006640269</v>
+        <v>0.72080517361059027</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.68680420178662938</v>
+        <v>0.85939057892139759</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98510288154696901</v>
+        <v>0.39828202943104551</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.3880911568402533</v>
+        <v>0.31825010522181718</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.31067697420013352</v>
+        <v>0.62369707143860487</v>
       </c>
       <c r="H13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.93211657627394762</v>
+        <v>0.62441336193071884</v>
       </c>
       <c r="I13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.96878638747437873</v>
+        <v>0.59820301318762759</v>
       </c>
       <c r="J13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.58495704185485353</v>
+        <v>0.92177480613793783</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
@@ -1033,39 +1033,39 @@
       </c>
       <c r="B14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.41232023576297061</v>
+        <v>0.2355193312687055</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.9664887766286353</v>
+        <v>0.87746178831370925</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.34214427661120128</v>
+        <v>3.94149126920329E-2</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.59708221575340048</v>
+        <v>0.89079170885627179</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.36212305119575672</v>
+        <v>0.73369976127164183</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.94560505524885108</v>
+        <v>0.57125272506327618</v>
       </c>
       <c r="H14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.93230753179342851</v>
+        <v>0.98246213095024959</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13145919448304166</v>
+        <v>0.14911631402185743</v>
       </c>
       <c r="J14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.9117888928959117</v>
+        <v>0.54590639172862965</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
@@ -1074,39 +1074,39 @@
       </c>
       <c r="B15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.72763684034483134</v>
+        <v>0.9717782675536053</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.57464475608357446</v>
+        <v>0.82830497380868517</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.92044897744222376</v>
+        <v>0.42880606243679897</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.63506920208828566</v>
+        <v>0.20238478749358435</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.71062959366584399</v>
+        <v>0.33721183768945662</v>
       </c>
       <c r="G15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24606544301245403</v>
+        <v>0.69552333753979689</v>
       </c>
       <c r="H15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.73744598494519875</v>
+        <v>0.53285508034153795</v>
       </c>
       <c r="I15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21298173303840773</v>
+        <v>0.10150434911720485</v>
       </c>
       <c r="J15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16690368412134771</v>
+        <v>7.6039586972963535E-3</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
@@ -1115,39 +1115,39 @@
       </c>
       <c r="B16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.99642737100246936</v>
+        <v>0.82574792199425751</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69426373428138322</v>
+        <v>0.92989116573460473</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35574892946663494</v>
+        <v>0.11405347458570869</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.52834848407639645</v>
+        <v>0.84473002236534578</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10925778332384206</v>
+        <v>0.84726697068712398</v>
       </c>
       <c r="G16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75001150146355489</v>
+        <v>0.7798174787226152</v>
       </c>
       <c r="H16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.30621348139892646</v>
+        <v>0.37190173101386881</v>
       </c>
       <c r="I16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.26778619298142947</v>
+        <v>0.60047958737088791</v>
       </c>
       <c r="J16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.9095164614274015</v>
+        <v>0.98215534255850379</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
@@ -1156,39 +1156,39 @@
       </c>
       <c r="B17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7203722575854713</v>
+        <v>0.26825693306569143</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.56308428261417776</v>
+        <v>0.42852226067301802</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15765171314615012</v>
+        <v>0.71166358815484021</v>
       </c>
       <c r="E17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15986760000620392</v>
+        <v>0.38079166853250013</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2.6010923566333943E-2</v>
+        <v>0.22414154299130717</v>
       </c>
       <c r="G17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.28216847117760546</v>
+        <v>0.6706919508460274</v>
       </c>
       <c r="H17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.96576608268344877</v>
+        <v>0.80460957602661543</v>
       </c>
       <c r="I17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.52292080297562638</v>
+        <v>0.29148862158729283</v>
       </c>
       <c r="J17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.48322585130514495</v>
+        <v>0.71810549294570891</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
@@ -1197,39 +1197,39 @@
       </c>
       <c r="B18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35649952424639286</v>
+        <v>0.93372674650157594</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>6.9078387768086058E-2</v>
+        <v>0.91763491586021506</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.78838226896886676</v>
+        <v>0.2697441078688777</v>
       </c>
       <c r="E18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.59478067349083308</v>
+        <v>0.54428326204415101</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.17674157915210398</v>
+        <v>0.87181951699508564</v>
       </c>
       <c r="G18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.62754586622899233</v>
+        <v>0.20544919157354447</v>
       </c>
       <c r="H18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.96815471195051239</v>
+        <v>0.43946527259852119</v>
       </c>
       <c r="I18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14601683375276375</v>
+        <v>0.69467351878068351</v>
       </c>
       <c r="J18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.80952147889887383</v>
+        <v>0.53171116464673773</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
@@ -1238,39 +1238,39 @@
       </c>
       <c r="B19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7112044628976385</v>
+        <v>0.31448723704302917</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76272458076449878</v>
+        <v>1.0361216404470852E-3</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.17467755573431165</v>
+        <v>4.8962007952605413E-3</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.20404114873169832</v>
+        <v>0.96664661244280958</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.84779112550779467</v>
+        <v>8.2884748478605164E-2</v>
       </c>
       <c r="G19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14405072978796551</v>
+        <v>0.51062560704095517</v>
       </c>
       <c r="H19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43981508852595097</v>
+        <v>0.8319809814188408</v>
       </c>
       <c r="I19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.72157873842849607</v>
+        <v>0.41608097948663059</v>
       </c>
       <c r="J19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8233689117792713</v>
+        <v>0.91905476852320411</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
@@ -1279,39 +1279,39 @@
       </c>
       <c r="B20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.34141864380818587</v>
+        <v>0.97404508107275334</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.67210890563050663</v>
+        <v>0.92667349424004775</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14073854963318433</v>
+        <v>0.83562085185771051</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>9.4239763540083454E-2</v>
+        <v>0.71487071323500517</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>5.6598315787706244E-2</v>
+        <v>0.13614818386153604</v>
       </c>
       <c r="G20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.94475333853456001</v>
+        <v>0.92995825671720389</v>
       </c>
       <c r="H20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98425389553931453</v>
+        <v>0.29328983703226652</v>
       </c>
       <c r="I20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8998809469112472</v>
+        <v>0.66539154817313251</v>
       </c>
       <c r="J20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.23144804179437495</v>
+        <v>0.18910668702690026</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
@@ -1320,39 +1320,39 @@
       </c>
       <c r="B21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.81080749225653603</v>
+        <v>0.43551525130440394</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.23026613937758778</v>
+        <v>0.45588266874694472</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.85864912230031554</v>
+        <v>0.86931303670965587</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>6.091017391088549E-2</v>
+        <v>4.3425084494155608E-2</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.94260231523150861</v>
+        <v>0.30800883848288563</v>
       </c>
       <c r="G21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.41254861185617697</v>
+        <v>0.23485718886049489</v>
       </c>
       <c r="H21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.94707634905213078</v>
+        <v>0.5984156770033453</v>
       </c>
       <c r="I21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.85321632522481294</v>
+        <v>4.2502650697152422E-2</v>
       </c>
       <c r="J21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.95886816954363951</v>
+        <v>0.20233270798726199</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
@@ -1361,39 +1361,39 @@
       </c>
       <c r="B22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.83582929717788224</v>
+        <v>0.67814319436047132</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7166179808661356</v>
+        <v>0.69286217058898902</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76978765601635912</v>
+        <v>0.54126228288914247</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49534340408449562</v>
+        <v>0.85730749436724818</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75246869430668428</v>
+        <v>0.77582102775859718</v>
       </c>
       <c r="G22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5433839920488337</v>
+        <v>0.81070534609308376</v>
       </c>
       <c r="H22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.85119246317845865</v>
+        <v>0.66199667895573266</v>
       </c>
       <c r="I22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2940002500244242</v>
+        <v>0.11453446048823868</v>
       </c>
       <c r="J22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.56652968775713475</v>
+        <v>0.75827913469796038</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
@@ -1402,42 +1402,43 @@
       </c>
       <c r="B23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49306769178205545</v>
+        <v>0.33799961814428792</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.47184819818649082</v>
+        <v>0.94184528285075186</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.34679493677999007</v>
+        <v>0.38736934905192477</v>
       </c>
       <c r="E23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.28828573820644132</v>
+        <v>0.40693384239158314</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65615861457882219</v>
+        <v>0.6839339405110072</v>
       </c>
       <c r="G23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.93718821536733543</v>
+        <v>0.63523861318320096</v>
       </c>
       <c r="H23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.51662049690524003</v>
+        <v>0.88646043818364484</v>
       </c>
       <c r="I23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.90183447172375619</v>
+        <v>0.24653373734618156</v>
       </c>
       <c r="J23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.68106222454117527</v>
+        <v>0.63502171415508257</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>